--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18780" windowHeight="8580"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Procesos" sheetId="1" r:id="rId1"/>
+    <sheet name="Proyecto" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -88,13 +88,130 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Contabilidad y Presupuesto</t>
+  </si>
+  <si>
+    <t>Elaboración del Flujo de Caja</t>
+  </si>
+  <si>
+    <t>Elaboración del Balance General</t>
+  </si>
+  <si>
+    <t>En QA</t>
+  </si>
+  <si>
+    <t>Elaboración</t>
+  </si>
+  <si>
+    <t>En Revisión</t>
+  </si>
+  <si>
+    <t>Por Enviar</t>
+  </si>
+  <si>
+    <t>Elaboración de Informe Financiero para Proyectos y Donaciones</t>
+  </si>
+  <si>
+    <t>Despido/Renuncia de Personal</t>
+  </si>
+  <si>
+    <t>Gestión de Educación Rural</t>
+  </si>
+  <si>
+    <t>Planificación de Actividades</t>
+  </si>
+  <si>
+    <t>Acompañamiento</t>
+  </si>
+  <si>
+    <t>Propuesta de Proyectos Rurales</t>
+  </si>
+  <si>
+    <t>ARTEFACTOS</t>
+  </si>
+  <si>
+    <t>AVANCE</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>Mapa de Procesos – Objetivos</t>
+  </si>
+  <si>
+    <t>Definición  de Procesos</t>
+  </si>
+  <si>
+    <t>Arquitectura de Procesos</t>
+  </si>
+  <si>
+    <t>Matriz de Asignación de Responsabilidades (RAM)</t>
+  </si>
+  <si>
+    <t>Stakeholders Empresariales</t>
+  </si>
+  <si>
+    <t>Modelo de Dominio</t>
+  </si>
+  <si>
+    <t>Reglas de Negocio</t>
+  </si>
+  <si>
+    <t>Mapeo Entidad – Proceso</t>
+  </si>
+  <si>
+    <t>Priorización de Procesos</t>
+  </si>
+  <si>
+    <t>Priorización de Entidades</t>
+  </si>
+  <si>
+    <t>Descomposición Funcional</t>
+  </si>
+  <si>
+    <t>Avance por Ciclo</t>
+  </si>
+  <si>
+    <t>Ciclo 2011-1</t>
+  </si>
+  <si>
+    <t>Cartera de Proyectos</t>
+  </si>
+  <si>
+    <t>Definición de Portafolio</t>
+  </si>
+  <si>
+    <t>Ciclo 2011-2</t>
+  </si>
+  <si>
+    <t>Definición de Programas</t>
+  </si>
+  <si>
+    <t>Definición de Proyectos</t>
+  </si>
+  <si>
+    <t>Especificaciones de Interfaces de Usuario</t>
+  </si>
+  <si>
+    <t>Prototipos Navegables</t>
+  </si>
+  <si>
+    <t>AVANCE TOTAL DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>Pago de Presupuesto de Construcción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +249,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +339,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -203,18 +390,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -235,8 +597,172 @@
     <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="16" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -537,385 +1063,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H31"/>
+  <dimension ref="A3:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="31">
+        <f>AVERAGE(J4:J41)</f>
+        <v>0.21212121212121213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23">
+      <c r="B4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22">
         <f>SUM(H5:H7)/3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="I4" s="82">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="I5" s="81">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>1.2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="I6" s="81">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>1.3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="81">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
         <f>AVERAGE(H10:H14)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>2.1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <f>AVERAGE(H17:H23)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11">
+      <c r="I17" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11">
+      <c r="I18" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20">
+        <f>AVERAGE(H26:H31)</f>
+        <v>0.625</v>
+      </c>
+      <c r="I25" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14">
-        <f>AVERAGE(H17:H22)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16">
+      <c r="I26" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16">
+      <c r="I27" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
-        <v>3.4</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
-        <v>3.5</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21">
-        <f>AVERAGE(H25:H29)</f>
+      <c r="I28" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18">
+      <c r="I29" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
-        <v>4.2</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
-        <v>4.3</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="I30" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27">
+        <f>AVERAGE(H34:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="28">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29">
+        <v>0</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="28">
+        <v>5.3</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29">
+        <v>0</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35">
+        <f>AVERAGE(H39:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33">
+        <v>0</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33">
+        <v>0</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="32">
+        <v>6.3</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33">
+        <v>0</v>
+      </c>
+      <c r="I41" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4">
-        <f>AVERAGE(H24,H16,H10,H4,)</f>
-        <v>0.45</v>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="3">
+        <f>AVERAGE(H39:H41,H34:H36,H26:H31,H17:H23,H10:H14,H5:H7)</f>
+        <v>0.49074074074074076</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -924,12 +1845,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="36"/>
+    <col min="3" max="3" width="47.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="36"/>
+    <col min="8" max="8" width="30.7109375" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="42">
+        <v>2</v>
+      </c>
+      <c r="F4" s="43">
+        <f>D4*E4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.49</v>
+      </c>
+      <c r="E5" s="48">
+        <v>5</v>
+      </c>
+      <c r="F5" s="49">
+        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="50">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51">
+        <v>3</v>
+      </c>
+      <c r="F6" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="50">
+        <v>0</v>
+      </c>
+      <c r="E7" s="51">
+        <v>3</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
+        <v>1</v>
+      </c>
+      <c r="F8" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="50">
+        <v>0</v>
+      </c>
+      <c r="E9" s="51">
+        <v>2</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="50">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>2</v>
+      </c>
+      <c r="F10" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="50">
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>2</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="50">
+        <v>0</v>
+      </c>
+      <c r="E13" s="51">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0</v>
+      </c>
+      <c r="E14" s="51">
+        <v>3</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55">
+        <f>SUM(E4:E14)</f>
+        <v>25</v>
+      </c>
+      <c r="F15" s="56">
+        <f>SUM(F4:F14)/E15</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="H16" s="90"/>
+    </row>
+    <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="H17" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="65">
+        <v>0</v>
+      </c>
+      <c r="E18" s="66">
+        <v>4</v>
+      </c>
+      <c r="F18" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="92">
+        <f>F15</f>
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="65">
+        <v>0</v>
+      </c>
+      <c r="E19" s="66">
+        <v>4</v>
+      </c>
+      <c r="F19" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="94">
+        <f>AVERAGE(D18:D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="65">
+        <v>0</v>
+      </c>
+      <c r="E20" s="66">
+        <v>4</v>
+      </c>
+      <c r="F20" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="65">
+        <v>0</v>
+      </c>
+      <c r="E21" s="66">
+        <v>4</v>
+      </c>
+      <c r="F21" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="65">
+        <v>0</v>
+      </c>
+      <c r="E22" s="66">
+        <v>3</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="69">
+        <v>0</v>
+      </c>
+      <c r="E23" s="70">
+        <v>5</v>
+      </c>
+      <c r="F23" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74">
+        <f>SUM(E18:E23)</f>
+        <v>24</v>
+      </c>
+      <c r="F24" s="75">
+        <f>SUM(F18:F23)/E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79">
+        <f>SUM(E24,E15)</f>
+        <v>49</v>
+      </c>
+      <c r="F26" s="80">
+        <f>SUM(SUM(F4:F14),SUM(F18:F24))/E26</f>
+        <v>7.040816326530612E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
